--- a/qa/EvaluationTester Page1.xlsx
+++ b/qa/EvaluationTester Page1.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CCD2B-1EC6-4F66-8C14-A892FB47A3A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB99363-40A7-442F-839F-8A805915B24A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7F0B7623-5B0E-455C-9BC5-E155BF1FAB50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7F0B7623-5B0E-455C-9BC5-E155BF1FAB50}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" r:id="rId1"/>
     <sheet name="Métricas" sheetId="2" r:id="rId2"/>
+    <sheet name="HU" sheetId="3" r:id="rId3"/>
+    <sheet name="ProductBacklog" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -701,12 +706,108 @@
   <si>
     <t>SI</t>
   </si>
+  <si>
+    <t>Historias de Usuario</t>
+  </si>
+  <si>
+    <t>Estimación</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Pruebas Unitarias</t>
+  </si>
+  <si>
+    <t>Creación de casos de prueba</t>
+  </si>
+  <si>
+    <t>Ejecución de casos de prueba</t>
+  </si>
+  <si>
+    <t>Ajustes</t>
+  </si>
+  <si>
+    <t>Validación de Ajustes</t>
+  </si>
+  <si>
+    <t>Asignado a</t>
+  </si>
+  <si>
+    <t>Total Estimado</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Ajustes a la barra de navegación de la tienda</t>
+  </si>
+  <si>
+    <t>Visualización en toda la tienda de funcionalidad de lista de deseos</t>
+  </si>
+  <si>
+    <t>Modulo de descuentos de la tienda</t>
+  </si>
+  <si>
+    <t>Ajustes a la página del carrito de la tienda (my-cart)</t>
+  </si>
+  <si>
+    <t>Creación de prototipos de la pantalla principal de la tienda</t>
+  </si>
+  <si>
+    <t>Modificar barra de navegación el home</t>
+  </si>
+  <si>
+    <t>Ajustes de estilos del home de la tienda</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Modificar vista de detalles productos para agregar botón de lista de deseos</t>
+  </si>
+  <si>
+    <t>Modificar index de la página para mostrar botón en cada producto</t>
+  </si>
+  <si>
+    <t>Ajustes visuales</t>
+  </si>
+  <si>
+    <t>Elaboración de prototipo de modulo de descuentos</t>
+  </si>
+  <si>
+    <t>Crear vista de modulo de descuentos</t>
+  </si>
+  <si>
+    <t>Modificar home de la tienda para agregar accesos al modulo</t>
+  </si>
+  <si>
+    <t>Crear lógica para filtar productos con descuentos</t>
+  </si>
+  <si>
+    <t>Modificar lógica de visualización de porcentaje de descuento de productos</t>
+  </si>
+  <si>
+    <t>Ajustar control de modificación de cantidad de productos agregados al carrito</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,16 +864,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -880,12 +1000,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -928,12 +1090,21 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,6 +1116,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -954,29 +1134,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2935,6 +3141,170 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Product Backlog"/>
+      <sheetName val="BurnDown Chart Sprint 1"/>
+      <sheetName val="Matriz de Riesgos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="G1" t="str">
+            <v>Sprint 1</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="F2" t="str">
+            <v>Estimación</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Dia 1 10-02</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>Dia 2 11-02</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>Dia 3 12-02</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>Dia 4 15-02</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>Dia 5 16-02</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>Dia 6 17-02</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>Dia 7 18-02</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>Dia 8 19-02</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>Dia 9 22-02</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>Dia 10 23-02</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>Dia 11 24-02</v>
+          </cell>
+          <cell r="R2" t="str">
+            <v>Dia 12 25-02</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>Dia 13 26-02</v>
+          </cell>
+          <cell r="T2" t="str">
+            <v>Dia 14 01-03</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v>Dia 15 02-03</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>Dia 16 19-11</v>
+          </cell>
+          <cell r="W2" t="str">
+            <v>Dia 17 20-11</v>
+          </cell>
+          <cell r="X2" t="str">
+            <v>Dia 18 23-11</v>
+          </cell>
+          <cell r="Y2" t="str">
+            <v>Dia 19 24-11</v>
+          </cell>
+          <cell r="Z2" t="str">
+            <v>Dia 20 25-11</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="D79" t="str">
+            <v>REAL</v>
+          </cell>
+          <cell r="F79">
+            <v>189</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="D80" t="str">
+            <v>ESTIMADO</v>
+          </cell>
+          <cell r="F80">
+            <v>189</v>
+          </cell>
+          <cell r="G80">
+            <v>176</v>
+          </cell>
+          <cell r="H80">
+            <v>164</v>
+          </cell>
+          <cell r="I80">
+            <v>151</v>
+          </cell>
+          <cell r="J80">
+            <v>139</v>
+          </cell>
+          <cell r="K80">
+            <v>126</v>
+          </cell>
+          <cell r="L80">
+            <v>113</v>
+          </cell>
+          <cell r="M80">
+            <v>101</v>
+          </cell>
+          <cell r="N80">
+            <v>88</v>
+          </cell>
+          <cell r="O80">
+            <v>76</v>
+          </cell>
+          <cell r="P80">
+            <v>63</v>
+          </cell>
+          <cell r="Q80">
+            <v>50</v>
+          </cell>
+          <cell r="R80">
+            <v>38</v>
+          </cell>
+          <cell r="S80">
+            <v>25</v>
+          </cell>
+          <cell r="T80">
+            <v>13</v>
+          </cell>
+          <cell r="U80">
+            <v>0</v>
+          </cell>
+          <cell r="V80">
+            <v>0</v>
+          </cell>
+          <cell r="W80">
+            <v>0</v>
+          </cell>
+          <cell r="X80">
+            <v>0</v>
+          </cell>
+          <cell r="Y80">
+            <v>0</v>
+          </cell>
+          <cell r="Z80">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3235,7 +3605,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:G29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,659 +3656,704 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="21"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="21"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="21"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="21"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="20"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="25">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="21"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="21"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="25">
         <v>3</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="21"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="21"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="21"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="20"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="25">
         <v>4</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="21"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="21"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="20"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="25">
         <v>5</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="20"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="25">
         <v>6</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="25">
         <v>7</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="21"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="25">
         <v>8</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="21"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="21"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="21"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38" s="25">
         <v>9</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="21"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="H27:H29"/>
     <mergeCell ref="I27:I29"/>
     <mergeCell ref="A30:A37"/>
@@ -3955,56 +4370,11 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="C30:C37"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I24">
     <cfRule type="colorScale" priority="4">
@@ -4050,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F297E06E-DE39-474C-9075-18804BD7AFDF}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4188,4 +4558,680 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7ED165-2A80-46D8-B3DA-A59FBCF56E69}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56" style="41" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B2E7A6-03AD-4D3C-ABF8-B8D6D167D8F6}">
+  <dimension ref="A1:Y74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="42">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="42">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="42">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="42">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="42">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="42">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="42">
+        <v>11</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="42">
+        <v>12</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
+        <v>13</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
+        <v>14</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="42">
+        <v>15</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
+        <v>16</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
+        <v>17</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
+        <v>18</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
+        <v>19</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
+        <v>20</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="42">
+        <v>21</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="42">
+        <v>22</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
+        <v>23</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
+        <v>24</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="42">
+        <v>25</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="42">
+        <v>26</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
+        <v>27</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="42">
+        <v>28</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="42">
+        <v>29</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
+        <v>30</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42">
+        <v>31</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="55">
+        <f>SUM(E2:E34)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="46"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="47"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="48"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>